--- a/medicine/Enfance/Jan_Eilander/Jan_Eilander.xlsx
+++ b/medicine/Enfance/Jan_Eilander/Jan_Eilander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jan Eilander, né en 1959 aux Pays-Bas[1], est un scénariste, réalisateur et écrivain néerlandais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jan Eilander, né en 1959 aux Pays-Bas, est un scénariste, réalisateur et écrivain néerlandais.
 </t>
         </is>
       </c>
@@ -511,16 +523,52 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1993 : Love Hurts de Mijke de Jong[2]
-1999 : André Hazes - She Believes in Me de John Appel[3]
-2008 : Katia's Sister de Mijke de Jong[4]
-2015 : J. Kessels de Erik de Bruyn[5]
-2016 : A Real Vermeer de Rudolf van den Berg[6]
-2016 : Layla M. de Mijke de Jong[7]
-Réalisateur
-1994 :  Rock 'n' Roll Junkie : co-réalisé avec Frenk Van Der Sterre, Frenk Van Der Sterre et Ton van der Lee[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1993 : Love Hurts de Mijke de Jong
+1999 : André Hazes - She Believes in Me de John Appel
+2008 : Katia's Sister de Mijke de Jong
+2015 : J. Kessels de Erik de Bruyn
+2016 : A Real Vermeer de Rudolf van den Berg
+2016 : Layla M. de Mijke de Jong</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jan_Eilander</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jan_Eilander</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Réalisateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1994 :  Rock 'n' Roll Junkie : co-réalisé avec Frenk Van Der Sterre, Frenk Van Der Sterre et Ton van der Lee</t>
         </is>
       </c>
     </row>
